--- a/data/trans_dic/P25_5-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25_5-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece asma</t>
+          <t>Población que padece asma (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6,32%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>8,75%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 11,73</t>
+          <t>2,05; 11,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,58; 8,6</t>
+          <t>4,41; 11,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,83; 8,24</t>
+          <t>2,87; 8,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 10,14</t>
+          <t>1,16; 8,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,91; 13,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,01; 9,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 10,51</t>
+          <t>6,0; 15,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 11,29</t>
+          <t>4,32; 10,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,74; 10,8</t>
+          <t>5,06; 10,73</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,3; 7,99</t>
+          <t>7,06; 25,17</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,2; 9,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>4,8; 11,51</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>4,98; 9,74</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>4,5; 8,5</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>5,23; 16,2</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5,96%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5,1%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>6,46%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>6,95%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,98</t>
+          <t>3,58; 9,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,64</t>
+          <t>3,9; 9,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,86; 10,0</t>
+          <t>3,75; 9,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,45; 10,45</t>
+          <t>3,39; 9,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 8,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 6,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,87; 9,35</t>
+          <t>3,98; 9,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,84; 11,88</t>
+          <t>2,71; 6,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,53</t>
+          <t>4,86; 10,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 6,92</t>
+          <t>5,82; 11,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,75; 10,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,35; 8,04</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,84; 7,09</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4,84; 8,94</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>5,24; 9,19</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6,4%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>6,53%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,09; 11,04</t>
+          <t>3,45; 12,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,4</t>
+          <t>2,24; 6,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,41; 8,41</t>
+          <t>3,59; 8,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 7,86</t>
+          <t>5,0; 12,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 8,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 10,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,67; 10,12</t>
+          <t>3,58; 9,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,76; 13,32</t>
+          <t>5,59; 10,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,38</t>
+          <t>5,7; 10,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,57; 7,62</t>
+          <t>5,73; 12,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,16; 8,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 9,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,48; 9,34</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>4,57; 7,93</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>5,12; 8,41</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>6,04; 11,07</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,86%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,35%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>8,66%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,83</t>
+          <t>4,56; 9,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,27; 6,89</t>
+          <t>2,7; 8,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,38; 7,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 8,29</t>
+          <t>3,92; 9,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 8,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 7,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,84; 8,5</t>
+          <t>4,62; 9,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,92; 10,35</t>
+          <t>3,66; 8,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,21; 7,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 6,68</t>
+          <t>8,05; 15,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,4; 7,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,53; 8,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,26; 8,89</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>3,75; 7,2</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>6,57; 11,4</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,43%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5,53%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,1%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,98%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,33%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9,87%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>6,63%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>8,03%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,99; 8,22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,24; 7,12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,13; 7,52</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4,59; 7,94</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5,53; 8,39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,98; 7,39</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 9,09</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>8,17; 12,24</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>5,66; 7,96</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,89; 6,67</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>5,45; 7,66</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>6,82; 9,44</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece asma (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18645</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>39747</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>35807</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16286</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>41606</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>43559</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>66971</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>79289</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>60252</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>83306</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>102778</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>95575</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6945; 38748</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>23286; 63257</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>20891; 60712</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5171; 39052</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>25160; 66658</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>27561; 67489</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>45484; 96435</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>45584; 162401</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>36414; 87339</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>58063; 113662</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>73164; 138316</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>57130; 177050</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>55263</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>74877</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>96954</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>59846</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>59980</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>49493</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>105036</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>89678</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>115243</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>124369</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>201990</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>149525</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>33421; 85605</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>47052; 116507</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>60704; 155992</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>36189; 96766</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>39770; 90750</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>33287; 73755</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>73258; 161343</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>63106; 122597</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>84121; 155379</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>93587; 172818</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>151478; 279548</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>112767; 197642</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>48445</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>31732</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>57497</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>64515</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>46487</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>74216</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>89515</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>76258</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>94933</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>105948</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>147012</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>140773</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>24689; 88033</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18970; 52272</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>39116; 90784</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>41302; 104016</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>27447; 72805</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>52616; 100225</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>66198; 117996</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>51388; 112089</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>66376; 138536</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>81616; 141795</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>115299; 189462</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>104170; 190834</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>98777</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>40428</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>69348</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>96930</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>46312</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>111008</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>195707</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>86740</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>180355</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>66395; 138278</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>23173; 70047</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>43113; 107496</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>64508; 134941</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>27904; 67647</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>79236; 153645</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>150091; 253672</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>60836; 116826</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>136911; 237585</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>221131</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>186784</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>190258</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>209995</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>245004</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>213580</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>261522</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>356233</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>466135</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>400364</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>451780</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>566228</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>171781; 283300</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>145824; 245009</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>142067; 258804</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>158079; 273099</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>197990; 300590</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>178113; 264113</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>216666; 324425</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>295050; 441924</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>397971; 559633</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>343142; 467433</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>382075; 537006</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>480980; 665439</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
